--- a/materialy/mestske-firmy/organy-politicke-osoby-2017.xlsx
+++ b/materialy/mestske-firmy/organy-politicke-osoby-2017.xlsx
@@ -5,10 +5,10 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="985" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="představenstva" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="obsazení" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -779,7 +779,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -791,100 +791,16 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-      <charset val="238"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-      <charset val="238"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-      <charset val="238"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="238"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="238"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFCC0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="238"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="238"/>
-    </font>
-    <font>
-      <i val="true"/>
-      <sz val="10"/>
-      <color rgb="FF808080"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="238"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF006600"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="238"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="24"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="238"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="238"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="238"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF996600"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="238"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF333333"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="238"/>
     </font>
     <font>
       <sz val="11"/>
@@ -919,7 +835,7 @@
       <charset val="238"/>
     </font>
   </fonts>
-  <fills count="17">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -928,50 +844,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF000000"/>
-        <bgColor rgb="FF003300"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF808080"/>
-        <bgColor rgb="FF999999"/>
+        <fgColor rgb="FFC697E7"/>
+        <bgColor rgb="FF9999FF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFDDDDDD"/>
-        <bgColor rgb="FFFFCCCC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCCCC"/>
-        <bgColor rgb="FFDDDDDD"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCC0000"/>
-        <bgColor rgb="FFFF0000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCCFFCC"/>
-        <bgColor rgb="FFCCFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC697E7"/>
-        <bgColor rgb="FF9999FF"/>
+        <bgColor rgb="FFCCFFCC"/>
       </patternFill>
     </fill>
     <fill>
@@ -1013,11 +893,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
-        <bgColor rgb="FFCC0000"/>
+        <bgColor rgb="FF993300"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -1025,23 +905,8 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin">
-        <color rgb="FF808080"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF808080"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF808080"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF808080"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="36">
+  <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1065,180 +930,140 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="7" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="9" fillId="7" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="13" fillId="8" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="14" fillId="8" borderId="1" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="31">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="12" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="12" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="13" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="12" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="14" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="15" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="16" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="22">
+  <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Accent" xfId="20" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent 1" xfId="21" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent 2" xfId="22" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent 3" xfId="23" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Bad" xfId="24" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Error" xfId="25" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Footnote" xfId="26" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Good" xfId="27" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Heading" xfId="28" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Heading 1" xfId="29" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Heading 2" xfId="30" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Neutral" xfId="31" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Note" xfId="32" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Status" xfId="33" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Text" xfId="34" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Warning" xfId="35" builtinId="53" customBuiltin="true"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -1250,10 +1075,10 @@
       <rgbColor rgb="FFFFFF00"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FFCC0000"/>
-      <rgbColor rgb="FF006600"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
       <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF996600"/>
+      <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
       <rgbColor rgb="FFC0C0C0"/>
@@ -1281,7 +1106,7 @@
       <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFC697E7"/>
-      <rgbColor rgb="FFFFCCCC"/>
+      <rgbColor rgb="FFFFCC99"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF99CC00"/>
@@ -1310,30 +1135,30 @@
   </sheetPr>
   <dimension ref="A1:Q71"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A29" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C40" activeCellId="0" sqref="C40"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A17" activeCellId="0" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="36.8724489795918"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="20.2857142857143"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="24.6224489795918"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="21.2397959183673"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="20.0612244897959"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="18.3163265306122"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="17.8724489795918"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="18.5102040816327"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="19.6020408163265"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="18.780612244898"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="12.3316326530612"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="11.9591836734694"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="12.969387755102"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="16.0663265306122"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="8.3265306122449"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="13.6887755102041"/>
-    <col collapsed="false" hidden="false" max="257" min="17" style="1" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="1025" min="258" style="0" width="8.50510204081633"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="36.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="20.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="24.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="21.24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="20.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="18.32"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="17.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="18.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="19.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="18.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="12.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="11.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="12.97"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="16.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="8.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="13.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="257" min="17" style="1" width="8.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="258" style="0" width="8.51"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1379,16 +1204,16 @@
       <c r="N3" s="8"/>
       <c r="O3" s="8"/>
       <c r="P3" s="8"/>
-      <c r="Q3" s="9"/>
+      <c r="Q3" s="4"/>
     </row>
     <row r="4" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="10" t="s">
         <v>11</v>
       </c>
       <c r="D4" s="6" t="s">
@@ -1406,7 +1231,7 @@
       <c r="N4" s="4"/>
       <c r="O4" s="4"/>
       <c r="P4" s="4"/>
-      <c r="Q4" s="9"/>
+      <c r="Q4" s="4"/>
     </row>
     <row r="5" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
@@ -1433,34 +1258,34 @@
       <c r="N5" s="4"/>
       <c r="O5" s="4"/>
       <c r="P5" s="4"/>
-      <c r="Q5" s="9"/>
+      <c r="Q5" s="4"/>
     </row>
     <row r="6" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="11" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="14"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="13"/>
       <c r="O6" s="4"/>
       <c r="P6" s="4"/>
-      <c r="Q6" s="9"/>
+      <c r="Q6" s="4"/>
     </row>
     <row r="7" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
@@ -1487,7 +1312,7 @@
       <c r="N7" s="4"/>
       <c r="O7" s="4"/>
       <c r="P7" s="4"/>
-      <c r="Q7" s="9"/>
+      <c r="Q7" s="4"/>
     </row>
     <row r="8" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
@@ -1502,29 +1327,29 @@
       <c r="D8" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="15" t="s">
+      <c r="E8" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="F8" s="15" t="s">
+      <c r="F8" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="14"/>
-      <c r="M8" s="14"/>
-      <c r="N8" s="14"/>
-      <c r="O8" s="14"/>
-      <c r="P8" s="14"/>
-      <c r="Q8" s="9"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="13"/>
+      <c r="O8" s="13"/>
+      <c r="P8" s="13"/>
+      <c r="Q8" s="4"/>
     </row>
     <row r="9" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="15" t="s">
         <v>32</v>
       </c>
       <c r="C9" s="7" t="s">
@@ -1533,7 +1358,7 @@
       <c r="D9" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="E9" s="17" t="s">
+      <c r="E9" s="16" t="s">
         <v>35</v>
       </c>
       <c r="F9" s="4"/>
@@ -1547,7 +1372,7 @@
       <c r="N9" s="4"/>
       <c r="O9" s="4"/>
       <c r="P9" s="4"/>
-      <c r="Q9" s="9"/>
+      <c r="Q9" s="4"/>
     </row>
     <row r="10" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="s">
@@ -1576,7 +1401,7 @@
       <c r="N10" s="4"/>
       <c r="O10" s="4"/>
       <c r="P10" s="4"/>
-      <c r="Q10" s="9"/>
+      <c r="Q10" s="4"/>
     </row>
     <row r="11" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="s">
@@ -1603,7 +1428,7 @@
       <c r="N11" s="4"/>
       <c r="O11" s="4"/>
       <c r="P11" s="4"/>
-      <c r="Q11" s="9"/>
+      <c r="Q11" s="4"/>
     </row>
     <row r="12" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="4" t="s">
@@ -1630,7 +1455,7 @@
       <c r="N12" s="4"/>
       <c r="O12" s="4"/>
       <c r="P12" s="4"/>
-      <c r="Q12" s="9"/>
+      <c r="Q12" s="4"/>
     </row>
     <row r="13" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="s">
@@ -1657,10 +1482,10 @@
       <c r="N13" s="4"/>
       <c r="O13" s="4"/>
       <c r="P13" s="4"/>
-      <c r="Q13" s="9"/>
+      <c r="Q13" s="4"/>
     </row>
     <row r="14" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="4" t="s">
         <v>50</v>
       </c>
       <c r="B14" s="6" t="s">
@@ -1684,10 +1509,10 @@
       <c r="N14" s="4"/>
       <c r="O14" s="4"/>
       <c r="P14" s="4"/>
-      <c r="Q14" s="9"/>
+      <c r="Q14" s="4"/>
     </row>
     <row r="15" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="18" t="s">
+      <c r="A15" s="17" t="s">
         <v>53</v>
       </c>
       <c r="B15" s="6" t="s">
@@ -1711,13 +1536,13 @@
       <c r="N15" s="4"/>
       <c r="O15" s="4"/>
       <c r="P15" s="4"/>
-      <c r="Q15" s="9"/>
+      <c r="Q15" s="4"/>
     </row>
     <row r="16" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B16" s="16" t="s">
+      <c r="B16" s="15" t="s">
         <v>58</v>
       </c>
       <c r="C16" s="6" t="s">
@@ -1738,19 +1563,19 @@
       <c r="N16" s="4"/>
       <c r="O16" s="4"/>
       <c r="P16" s="4"/>
-      <c r="Q16" s="9"/>
+      <c r="Q16" s="4"/>
     </row>
     <row r="17" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="B17" s="19" t="s">
+      <c r="B17" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="C17" s="17" t="s">
+      <c r="C17" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="D17" s="16" t="s">
+      <c r="D17" s="15" t="s">
         <v>64</v>
       </c>
       <c r="E17" s="6" t="s">
@@ -1769,7 +1594,7 @@
       <c r="N17" s="4"/>
       <c r="O17" s="4"/>
       <c r="P17" s="4"/>
-      <c r="Q17" s="9"/>
+      <c r="Q17" s="4"/>
     </row>
     <row r="18" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="4" t="s">
@@ -1778,7 +1603,7 @@
       <c r="B18" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="16" t="s">
+      <c r="C18" s="15" t="s">
         <v>68</v>
       </c>
       <c r="D18" s="7" t="s">
@@ -1796,7 +1621,7 @@
       <c r="N18" s="4"/>
       <c r="O18" s="4"/>
       <c r="P18" s="4"/>
-      <c r="Q18" s="9"/>
+      <c r="Q18" s="4"/>
     </row>
     <row r="19" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="4" t="s">
@@ -1805,7 +1630,7 @@
       <c r="B19" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="C19" s="20" t="s">
+      <c r="C19" s="19" t="s">
         <v>72</v>
       </c>
       <c r="D19" s="6" t="s">
@@ -1825,7 +1650,7 @@
       <c r="N19" s="4"/>
       <c r="O19" s="4"/>
       <c r="P19" s="4"/>
-      <c r="Q19" s="9"/>
+      <c r="Q19" s="4"/>
     </row>
     <row r="20" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="4" t="s">
@@ -1854,7 +1679,7 @@
       <c r="N20" s="4"/>
       <c r="O20" s="4"/>
       <c r="P20" s="4"/>
-      <c r="Q20" s="9"/>
+      <c r="Q20" s="4"/>
     </row>
     <row r="21" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="4" t="s">
@@ -1866,7 +1691,7 @@
       <c r="C21" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="D21" s="19" t="s">
+      <c r="D21" s="18" t="s">
         <v>77</v>
       </c>
       <c r="E21" s="4"/>
@@ -1881,7 +1706,7 @@
       <c r="N21" s="4"/>
       <c r="O21" s="4"/>
       <c r="P21" s="4"/>
-      <c r="Q21" s="9"/>
+      <c r="Q21" s="4"/>
     </row>
     <row r="22" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="4" t="s">
@@ -1890,7 +1715,7 @@
       <c r="B22" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="C22" s="19" t="s">
+      <c r="C22" s="18" t="s">
         <v>83</v>
       </c>
       <c r="D22" s="6" t="s">
@@ -1899,7 +1724,7 @@
       <c r="E22" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="F22" s="16" t="s">
+      <c r="F22" s="15" t="s">
         <v>86</v>
       </c>
       <c r="G22" s="8"/>
@@ -1912,7 +1737,7 @@
       <c r="N22" s="4"/>
       <c r="O22" s="4"/>
       <c r="P22" s="4"/>
-      <c r="Q22" s="9"/>
+      <c r="Q22" s="4"/>
     </row>
     <row r="23" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="4" t="s">
@@ -1921,7 +1746,7 @@
       <c r="B23" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="C23" s="19" t="s">
+      <c r="C23" s="18" t="s">
         <v>83</v>
       </c>
       <c r="D23" s="6" t="s">
@@ -1930,7 +1755,7 @@
       <c r="E23" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="F23" s="16" t="s">
+      <c r="F23" s="15" t="s">
         <v>86</v>
       </c>
       <c r="G23" s="8"/>
@@ -1943,13 +1768,13 @@
       <c r="N23" s="4"/>
       <c r="O23" s="4"/>
       <c r="P23" s="4"/>
-      <c r="Q23" s="9"/>
+      <c r="Q23" s="4"/>
     </row>
     <row r="24" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="B24" s="17" t="s">
+      <c r="B24" s="16" t="s">
         <v>89</v>
       </c>
       <c r="C24" s="6" t="s">
@@ -1961,10 +1786,9 @@
       <c r="E24" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="F24" s="21" t="s">
+      <c r="F24" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="G24" s="22"/>
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
       <c r="J24" s="4"/>
@@ -1974,7 +1798,7 @@
       <c r="N24" s="4"/>
       <c r="O24" s="4"/>
       <c r="P24" s="4"/>
-      <c r="Q24" s="9"/>
+      <c r="Q24" s="4"/>
     </row>
     <row r="25" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="4" t="s">
@@ -2003,13 +1827,13 @@
       <c r="N25" s="4"/>
       <c r="O25" s="4"/>
       <c r="P25" s="4"/>
-      <c r="Q25" s="9"/>
+      <c r="Q25" s="4"/>
     </row>
     <row r="26" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="B26" s="19" t="s">
+      <c r="B26" s="18" t="s">
         <v>100</v>
       </c>
       <c r="C26" s="6" t="s">
@@ -2034,7 +1858,7 @@
       <c r="N26" s="4"/>
       <c r="O26" s="4"/>
       <c r="P26" s="4"/>
-      <c r="Q26" s="9"/>
+      <c r="Q26" s="4"/>
     </row>
     <row r="27" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="4" t="s">
@@ -2063,7 +1887,7 @@
       <c r="N27" s="4"/>
       <c r="O27" s="4"/>
       <c r="P27" s="4"/>
-      <c r="Q27" s="9"/>
+      <c r="Q27" s="4"/>
     </row>
     <row r="28" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="4" t="s">
@@ -2072,7 +1896,7 @@
       <c r="B28" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="C28" s="11" t="s">
+      <c r="C28" s="10" t="s">
         <v>111</v>
       </c>
       <c r="D28" s="6" t="s">
@@ -2085,7 +1909,6 @@
         <v>114</v>
       </c>
       <c r="G28" s="4"/>
-      <c r="H28" s="22"/>
       <c r="I28" s="4"/>
       <c r="J28" s="4"/>
       <c r="K28" s="4"/>
@@ -2094,7 +1917,7 @@
       <c r="N28" s="4"/>
       <c r="O28" s="4"/>
       <c r="P28" s="4"/>
-      <c r="Q28" s="9"/>
+      <c r="Q28" s="4"/>
     </row>
     <row r="29" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="4" t="s">
@@ -2116,7 +1939,6 @@
         <v>120</v>
       </c>
       <c r="G29" s="4"/>
-      <c r="H29" s="22"/>
       <c r="I29" s="4"/>
       <c r="J29" s="4"/>
       <c r="K29" s="4"/>
@@ -2125,25 +1947,10 @@
       <c r="N29" s="4"/>
       <c r="O29" s="4"/>
       <c r="P29" s="4"/>
-      <c r="Q29" s="9"/>
+      <c r="Q29" s="4"/>
     </row>
     <row r="30" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="23"/>
-      <c r="B30" s="22"/>
-      <c r="C30" s="22"/>
-      <c r="D30" s="22"/>
-      <c r="E30" s="22"/>
-      <c r="F30" s="22"/>
-      <c r="G30" s="22"/>
-      <c r="H30" s="22"/>
-      <c r="I30" s="22"/>
-      <c r="J30" s="22"/>
-      <c r="K30" s="22"/>
-      <c r="L30" s="22"/>
-      <c r="M30" s="22"/>
-      <c r="N30" s="22"/>
-      <c r="O30" s="22"/>
-      <c r="P30" s="22"/>
+      <c r="A30" s="21"/>
     </row>
     <row r="31" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="2" t="s">
@@ -2160,7 +1967,7 @@
       </c>
     </row>
     <row r="33" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="9" t="s">
+      <c r="A33" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B33" s="7" t="s">
@@ -2175,24 +1982,24 @@
       <c r="E33" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="F33" s="17" t="s">
+      <c r="F33" s="16" t="s">
         <v>125</v>
       </c>
       <c r="G33" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="H33" s="21" t="s">
+      <c r="H33" s="20" t="s">
         <v>127</v>
       </c>
-      <c r="I33" s="24" t="s">
+      <c r="I33" s="22" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="9" t="s">
+      <c r="A34" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B34" s="16" t="s">
+      <c r="B34" s="15" t="s">
         <v>129</v>
       </c>
       <c r="C34" s="6" t="s">
@@ -2210,10 +2017,10 @@
       <c r="G34" s="4"/>
     </row>
     <row r="35" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="9" t="s">
+      <c r="A35" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B35" s="16" t="s">
+      <c r="B35" s="15" t="s">
         <v>133</v>
       </c>
       <c r="C35" s="5" t="s">
@@ -2227,10 +2034,10 @@
       <c r="G35" s="4"/>
     </row>
     <row r="36" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="9" t="s">
+      <c r="A36" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B36" s="25" t="s">
+      <c r="B36" s="23" t="s">
         <v>135</v>
       </c>
       <c r="C36" s="7" t="s">
@@ -2239,18 +2046,18 @@
       <c r="D36" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="E36" s="16" t="s">
+      <c r="E36" s="15" t="s">
         <v>136</v>
       </c>
       <c r="F36" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="G36" s="15" t="s">
+      <c r="G36" s="14" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="9" t="s">
+      <c r="A37" s="4" t="s">
         <v>21</v>
       </c>
       <c r="B37" s="7" t="s">
@@ -2259,7 +2066,7 @@
       <c r="C37" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="D37" s="17" t="s">
+      <c r="D37" s="16" t="s">
         <v>140</v>
       </c>
       <c r="E37" s="6" t="s">
@@ -2269,7 +2076,7 @@
       <c r="G37" s="4"/>
     </row>
     <row r="38" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="9" t="s">
+      <c r="A38" s="4" t="s">
         <v>25</v>
       </c>
       <c r="B38" s="7" t="s">
@@ -2281,16 +2088,16 @@
       <c r="D38" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="E38" s="15" t="s">
+      <c r="E38" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="F38" s="15" t="s">
+      <c r="F38" s="14" t="s">
         <v>146</v>
       </c>
-      <c r="G38" s="14"/>
+      <c r="G38" s="13"/>
     </row>
     <row r="39" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="9" t="s">
+      <c r="A39" s="4" t="s">
         <v>31</v>
       </c>
       <c r="B39" s="7" t="s">
@@ -2302,21 +2109,21 @@
       <c r="D39" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="E39" s="17" t="s">
+      <c r="E39" s="16" t="s">
         <v>150</v>
       </c>
-      <c r="F39" s="17" t="s">
+      <c r="F39" s="16" t="s">
         <v>151</v>
       </c>
-      <c r="G39" s="16" t="s">
+      <c r="G39" s="15" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="9" t="s">
+      <c r="A40" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B40" s="17" t="s">
+      <c r="B40" s="16" t="s">
         <v>89</v>
       </c>
       <c r="C40" s="7" t="s">
@@ -2328,24 +2135,24 @@
       <c r="E40" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="F40" s="16" t="s">
+      <c r="F40" s="15" t="s">
         <v>155</v>
       </c>
       <c r="G40" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="H40" s="26" t="s">
+      <c r="H40" s="24" t="s">
         <v>142</v>
       </c>
-      <c r="I40" s="27" t="s">
+      <c r="I40" s="25" t="s">
         <v>157</v>
       </c>
-      <c r="J40" s="27" t="s">
+      <c r="J40" s="25" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="9" t="s">
+      <c r="A41" s="4" t="s">
         <v>41</v>
       </c>
       <c r="B41" s="6" t="s">
@@ -2362,13 +2169,13 @@
       <c r="G41" s="4"/>
     </row>
     <row r="42" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="9" t="s">
+      <c r="A42" s="4" t="s">
         <v>43</v>
       </c>
       <c r="B42" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C42" s="16" t="s">
+      <c r="C42" s="15" t="s">
         <v>162</v>
       </c>
       <c r="D42" s="7" t="s">
@@ -2385,7 +2192,7 @@
       </c>
     </row>
     <row r="43" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="9" t="s">
+      <c r="A43" s="4" t="s">
         <v>47</v>
       </c>
       <c r="B43" s="6" t="s">
@@ -2402,7 +2209,7 @@
       <c r="G43" s="4"/>
     </row>
     <row r="44" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="9" t="s">
+      <c r="A44" s="4" t="s">
         <v>50</v>
       </c>
       <c r="B44" s="6" t="s">
@@ -2419,7 +2226,7 @@
       <c r="G44" s="4"/>
     </row>
     <row r="45" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="9" t="s">
+      <c r="A45" s="4" t="s">
         <v>53</v>
       </c>
       <c r="B45" s="6" t="s">
@@ -2436,7 +2243,7 @@
       <c r="G45" s="4"/>
     </row>
     <row r="46" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="9" t="s">
+      <c r="A46" s="4" t="s">
         <v>57</v>
       </c>
       <c r="B46" s="7" t="s">
@@ -2445,30 +2252,30 @@
       <c r="C46" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="D46" s="17" t="s">
+      <c r="D46" s="16" t="s">
         <v>173</v>
       </c>
       <c r="E46" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="F46" s="19" t="s">
+      <c r="F46" s="18" t="s">
         <v>175</v>
       </c>
-      <c r="G46" s="19" t="s">
+      <c r="G46" s="18" t="s">
         <v>176</v>
       </c>
-      <c r="H46" s="28" t="s">
+      <c r="H46" s="26" t="s">
         <v>135</v>
       </c>
-      <c r="I46" s="26" t="s">
+      <c r="I46" s="24" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="9" t="s">
+      <c r="A47" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="B47" s="19" t="s">
+      <c r="B47" s="18" t="s">
         <v>177</v>
       </c>
       <c r="C47" s="7" t="s">
@@ -2477,7 +2284,7 @@
       <c r="D47" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="E47" s="17" t="s">
+      <c r="E47" s="16" t="s">
         <v>178</v>
       </c>
       <c r="F47" s="5" t="s">
@@ -2486,10 +2293,10 @@
       <c r="G47" s="4"/>
     </row>
     <row r="48" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="9" t="s">
+      <c r="A48" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="B48" s="29" t="s">
+      <c r="B48" s="27" t="s">
         <v>180</v>
       </c>
       <c r="C48" s="6" t="s">
@@ -2503,7 +2310,7 @@
       <c r="G48" s="4"/>
     </row>
     <row r="49" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="9" t="s">
+      <c r="A49" s="4" t="s">
         <v>70</v>
       </c>
       <c r="B49" s="7" t="s">
@@ -2524,56 +2331,56 @@
       <c r="G49" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="H49" s="27" t="s">
+      <c r="H49" s="25" t="s">
         <v>187</v>
       </c>
-      <c r="I49" s="27" t="s">
+      <c r="I49" s="25" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="9" t="s">
+      <c r="A50" s="4" t="s">
         <v>189</v>
       </c>
       <c r="B50" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="C50" s="17" t="s">
+      <c r="C50" s="16" t="s">
         <v>191</v>
       </c>
       <c r="D50" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="E50" s="16" t="s">
+      <c r="E50" s="15" t="s">
         <v>193</v>
       </c>
-      <c r="F50" s="19" t="s">
+      <c r="F50" s="18" t="s">
         <v>194</v>
       </c>
       <c r="G50" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="H50" s="26" t="s">
+      <c r="H50" s="24" t="s">
         <v>144</v>
       </c>
-      <c r="I50" s="27" t="s">
+      <c r="I50" s="25" t="s">
         <v>196</v>
       </c>
-      <c r="J50" s="24" t="s">
+      <c r="J50" s="22" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="9" t="s">
+      <c r="A51" s="4" t="s">
         <v>80</v>
       </c>
       <c r="B51" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="C51" s="16" t="s">
+      <c r="C51" s="15" t="s">
         <v>193</v>
       </c>
-      <c r="D51" s="12" t="s">
+      <c r="D51" s="11" t="s">
         <v>135</v>
       </c>
       <c r="E51" s="4"/>
@@ -2581,13 +2388,13 @@
       <c r="G51" s="4"/>
     </row>
     <row r="52" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="9" t="s">
+      <c r="A52" s="4" t="s">
         <v>81</v>
       </c>
       <c r="B52" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="C52" s="16" t="s">
+      <c r="C52" s="15" t="s">
         <v>199</v>
       </c>
       <c r="D52" s="6" t="s">
@@ -2596,79 +2403,79 @@
       <c r="E52" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="F52" s="17" t="s">
+      <c r="F52" s="16" t="s">
         <v>202</v>
       </c>
-      <c r="G52" s="30" t="s">
+      <c r="G52" s="28" t="s">
         <v>203</v>
       </c>
-      <c r="H52" s="12" t="s">
+      <c r="H52" s="11" t="s">
         <v>204</v>
       </c>
-      <c r="I52" s="26" t="s">
+      <c r="I52" s="24" t="s">
         <v>205</v>
       </c>
-      <c r="J52" s="27" t="s">
+      <c r="J52" s="25" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="9" t="s">
+      <c r="A53" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="B53" s="20" t="s">
+      <c r="B53" s="19" t="s">
         <v>204</v>
       </c>
-      <c r="C53" s="16" t="s">
+      <c r="C53" s="15" t="s">
         <v>199</v>
       </c>
       <c r="D53" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="E53" s="17" t="s">
+      <c r="E53" s="16" t="s">
         <v>202</v>
       </c>
-      <c r="F53" s="30" t="s">
+      <c r="F53" s="28" t="s">
         <v>203</v>
       </c>
-      <c r="G53" s="12" t="s">
+      <c r="G53" s="11" t="s">
         <v>204</v>
       </c>
-      <c r="H53" s="26" t="s">
+      <c r="H53" s="24" t="s">
         <v>205</v>
       </c>
-      <c r="I53" s="27" t="s">
+      <c r="I53" s="25" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="9" t="s">
+      <c r="A54" s="4" t="s">
         <v>88</v>
       </c>
       <c r="B54" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="C54" s="17" t="s">
+      <c r="C54" s="16" t="s">
         <v>209</v>
       </c>
-      <c r="D54" s="20" t="s">
+      <c r="D54" s="19" t="s">
         <v>210</v>
       </c>
       <c r="E54" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="F54" s="26" t="s">
+      <c r="F54" s="24" t="s">
         <v>118</v>
       </c>
-      <c r="G54" s="21" t="s">
+      <c r="G54" s="20" t="s">
         <v>211</v>
       </c>
-      <c r="H54" s="27" t="s">
+      <c r="H54" s="25" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="9" t="s">
+      <c r="A55" s="4" t="s">
         <v>94</v>
       </c>
       <c r="B55" s="6" t="s">
@@ -2680,7 +2487,7 @@
       <c r="D55" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="E55" s="17" t="s">
+      <c r="E55" s="16" t="s">
         <v>216</v>
       </c>
       <c r="F55" s="6" t="s">
@@ -2691,10 +2498,10 @@
       </c>
     </row>
     <row r="56" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="9" t="s">
+      <c r="A56" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="B56" s="19" t="s">
+      <c r="B56" s="18" t="s">
         <v>218</v>
       </c>
       <c r="C56" s="6" t="s">
@@ -2712,21 +2519,21 @@
       <c r="G56" s="6" t="s">
         <v>223</v>
       </c>
-      <c r="H56" s="26" t="s">
+      <c r="H56" s="24" t="s">
         <v>124</v>
       </c>
-      <c r="I56" s="21" t="s">
+      <c r="I56" s="20" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="9" t="s">
+      <c r="A57" s="4" t="s">
         <v>104</v>
       </c>
       <c r="B57" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="C57" s="16" t="s">
+      <c r="C57" s="15" t="s">
         <v>226</v>
       </c>
       <c r="D57" s="7" t="s">
@@ -2743,13 +2550,13 @@
       </c>
     </row>
     <row r="58" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="9" t="s">
+      <c r="A58" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="B58" s="17" t="s">
+      <c r="B58" s="16" t="s">
         <v>231</v>
       </c>
-      <c r="C58" s="16" t="s">
+      <c r="C58" s="15" t="s">
         <v>232</v>
       </c>
       <c r="D58" s="6" t="s">
@@ -2766,13 +2573,13 @@
       </c>
     </row>
     <row r="59" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="9" t="s">
+      <c r="A59" s="4" t="s">
         <v>115</v>
       </c>
       <c r="B59" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="C59" s="17" t="s">
+      <c r="C59" s="16" t="s">
         <v>236</v>
       </c>
       <c r="D59" s="6" t="s">
@@ -2789,28 +2596,22 @@
       </c>
     </row>
     <row r="60" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="23"/>
-      <c r="B60" s="22"/>
-      <c r="C60" s="22"/>
-      <c r="D60" s="22"/>
-      <c r="E60" s="22"/>
-      <c r="F60" s="22"/>
-      <c r="G60" s="22"/>
+      <c r="A60" s="21"/>
     </row>
     <row r="61" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="23"/>
-      <c r="E61" s="31"/>
-      <c r="F61" s="31"/>
-      <c r="G61" s="31"/>
+      <c r="A61" s="21"/>
+      <c r="E61" s="29"/>
+      <c r="F61" s="29"/>
+      <c r="G61" s="29"/>
     </row>
     <row r="62" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="23"/>
-      <c r="E62" s="31"/>
-      <c r="F62" s="31"/>
-      <c r="G62" s="31"/>
+      <c r="A62" s="21"/>
+      <c r="E62" s="29"/>
+      <c r="F62" s="29"/>
+      <c r="G62" s="29"/>
     </row>
     <row r="63" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="23" t="s">
+      <c r="A63" s="21" t="s">
         <v>241</v>
       </c>
     </row>
@@ -2820,7 +2621,7 @@
       </c>
     </row>
     <row r="65" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="17" t="s">
+      <c r="A65" s="16" t="s">
         <v>243</v>
       </c>
     </row>
@@ -2830,22 +2631,22 @@
       </c>
     </row>
     <row r="67" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="16" t="s">
+      <c r="A67" s="15" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="32" t="s">
+      <c r="A68" s="30" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="12" t="s">
+      <c r="A69" s="11" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="30" t="s">
+      <c r="A70" s="28" t="s">
         <v>248</v>
       </c>
     </row>
@@ -2857,7 +2658,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,obyčejné"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,obyčejné"&amp;12Stránka &amp;P</oddFooter>
